--- a/버그리포트/리볼트데이 버그 리포트19-02-03(이태라).xlsx
+++ b/버그리포트/리볼트데이 버그 리포트19-02-03(이태라).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>불법 바이오칩 이슈(issueID_622_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전민원과의 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성(인파,아웃파,그래플) 선택 후 전민원과 전투가 일어나지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬20 이후 1013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,7 +736,7 @@
   <dimension ref="A4:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -926,10 +938,18 @@
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
       <c r="F18"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>

--- a/버그리포트/리볼트데이 버그 리포트19-02-03(이태라).xlsx
+++ b/버그리포트/리볼트데이 버그 리포트19-02-03(이태라).xlsx
@@ -11,16 +11,11 @@
     <sheet name="남은 업무" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(월드맵, 메인타이틀, 게임오버 BGM은 금일 내에 빠르게 리스트 올리겠음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추리 BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +262,110 @@
   </si>
   <si>
     <t>씬20 이후 1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM이 루프되지 않음</t>
+  </si>
+  <si>
+    <t>행동력이 최초 10에서 맵을 이동하자 99로 변경</t>
+  </si>
+  <si>
+    <t>폭파 사건 - 이슈 설명 후 현장 조사(범인과의 대화) 중 쉐이킹이 발생하는데, UI가 움직이며 비정상적으로 보임</t>
+  </si>
+  <si>
+    <t>강원진의 최대 체력이 5로 출력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세이브 기능 작동하지 않음, 불러오기 시 프롤로그로 이동 </t>
+  </si>
+  <si>
+    <t>대치동에서 압구정동 이동 후 마켓 UI가 바뀌기 전에 마켓 입장을 누르면 일반 상점이 출력된다.</t>
+  </si>
+  <si>
+    <t>바이오칩, 경한기업 폭탄 테러 인물과 대화가 바뀌며 게임 정지</t>
+  </si>
+  <si>
+    <t>게임 오버씬 BGM이 씬을 이탈해도 반복된다.</t>
+  </si>
+  <si>
+    <t>게임 오버에서 불러오기를 할 시, 월드맵 옵션에서 Default 값을 클릭할 시 프롤로그로 돌아가던 현상이 일어나지 않음</t>
+  </si>
+  <si>
+    <t>턴 종료를 클릭하여도 행동력이 최대치로 회복되지 않는다.</t>
+  </si>
+  <si>
+    <t>일원동이 일원으로 출력된다.</t>
+  </si>
+  <si>
+    <t>만든이 선택 후 BGM 출력되지 않음, 메인 화면으로 복귀해도 마찬가지</t>
+  </si>
+  <si>
+    <t>불러오기 자체는 정상 작동하나, 메인화면 BGM(박우주 테마)가 함께 출력됨</t>
+  </si>
+  <si>
+    <t>조사 : 결투 X 격투 O</t>
+  </si>
+  <si>
+    <t>상점 입장에 행동력이 소모되지 않으나, 반복 입장시 상품은 변함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불러오기 이후 존재하지 않던 긴급 이슈 다수 출현, 치안 도표가 상승한 지역 타일이 있는 반면 그렇지 않은 타일도 존재 </t>
+  </si>
+  <si>
+    <t>군부대 군견, 텍스트 스크립트 없이 바로 격투로 돌입</t>
+  </si>
+  <si>
+    <t>최소 데미지 1이 표기되었으나 실직적으로 데미지는 입지 않음</t>
+  </si>
+  <si>
+    <t>취소 후 재돌입 시 다른 긴급 이슈가 출력된다.</t>
+  </si>
+  <si>
+    <t>특정 행동(지역 타일 이동)시에 사라졌다가 등장하거나를 반복함</t>
+  </si>
+  <si>
+    <t>프롤로그</t>
+  </si>
+  <si>
+    <t>월드맵</t>
+  </si>
+  <si>
+    <t>긴급 이슈</t>
+  </si>
+  <si>
+    <t>상점</t>
+  </si>
+  <si>
+    <t>이슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압구정 비밀상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -449,6 +544,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -462,9 +565,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -725,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,13 +833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O42"/>
+  <dimension ref="A4:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="8.875" style="4" customWidth="1"/>
@@ -755,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -803,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -811,13 +911,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12"/>
     </row>
@@ -826,13 +926,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13"/>
     </row>
@@ -842,13 +942,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1"/>
@@ -867,13 +967,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1"/>
@@ -892,13 +992,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1"/>
@@ -917,13 +1017,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1"/>
@@ -942,13 +1042,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
       </c>
       <c r="F18"/>
       <c r="G18" s="7"/>
@@ -963,10 +1063,16 @@
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+      <c r="B19" s="17">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="F19"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -980,10 +1086,16 @@
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="B20" s="17">
+        <v>9</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="F20"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -997,10 +1109,16 @@
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="B21" s="17">
+        <v>10</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="F21"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -1013,82 +1131,217 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="B22" s="17">
+        <v>11</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="B23" s="17">
+        <v>12</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="17">
+        <v>13</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="F24"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25"/>
+      <c r="B25" s="17">
+        <v>14</v>
+      </c>
       <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="D25" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="F25"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26"/>
+      <c r="B26" s="17">
+        <v>15</v>
+      </c>
       <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
+      <c r="D26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="F26"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27"/>
+      <c r="B27" s="17">
+        <v>16</v>
+      </c>
       <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
+      <c r="D27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="F27"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B28"/>
+      <c r="B28" s="17">
+        <v>17</v>
+      </c>
       <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="D28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="F28"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B29"/>
+      <c r="B29" s="17">
+        <v>18</v>
+      </c>
       <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
+      <c r="D29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="F29"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="4" t="s">
+      <c r="B30" s="17">
+        <v>19</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="17">
+        <v>20</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="17">
+        <v>21</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="17">
+        <v>22</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="17">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="17">
+        <v>24</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="17">
+        <v>25</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="17">
+        <v>26</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="17">
         <v>27</v>
       </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1155,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1172,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1200,7 +1453,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1217,7 +1470,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1234,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1248,10 +1501,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1259,16 +1512,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1276,10 +1529,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>6</v>
@@ -1290,10 +1543,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>6</v>

--- a/버그리포트/리볼트데이 버그 리포트19-02-03(이태라).xlsx
+++ b/버그리포트/리볼트데이 버그 리포트19-02-03(이태라).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="177">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,15 +185,427 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>오리지널 BGM 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체곡으로 쓴 데저트빌딩과 스픽 왈츠가 실행되지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG 부분에서 정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneID17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV 씬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시 2019/02/03 06:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브 로드가 작동이 안 됨. 세이브 부분에서 기록이 바로 안뜨고 불러오기 했을 경우 프롤로그부터 다시 시작.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 CSV 잘못 불러와짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 진행 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불법바이오칩 이슈 진행 중 캐릭터 이름창이 전환되면서 게임이 정지됨. (제조자가 뜨고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이로봇 도난사건 이슈(issueID_626_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불법 바이오칩 이슈(issueID_622_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전민원과의 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성(인파,아웃파,그래플) 선택 후 전민원과 전투가 일어나지 않음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬20 이후 1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM이 루프되지 않음</t>
+  </si>
+  <si>
+    <t>행동력이 최초 10에서 맵을 이동하자 99로 변경</t>
+  </si>
+  <si>
+    <t>폭파 사건 - 이슈 설명 후 현장 조사(범인과의 대화) 중 쉐이킹이 발생하는데, UI가 움직이며 비정상적으로 보임</t>
+  </si>
+  <si>
+    <t>강원진의 최대 체력이 5로 출력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">세이브 기능 작동하지 않음, 불러오기 시 프롤로그로 이동 </t>
+  </si>
+  <si>
+    <t>대치동에서 압구정동 이동 후 마켓 UI가 바뀌기 전에 마켓 입장을 누르면 일반 상점이 출력된다.</t>
+  </si>
+  <si>
+    <t>게임 오버씬 BGM이 씬을 이탈해도 반복된다.</t>
+  </si>
+  <si>
+    <t>턴 종료를 클릭하여도 행동력이 최대치로 회복되지 않는다.</t>
+  </si>
+  <si>
+    <t>일원동이 일원으로 출력된다.</t>
+  </si>
+  <si>
+    <t>만든이 선택 후 BGM 출력되지 않음, 메인 화면으로 복귀해도 마찬가지</t>
+  </si>
+  <si>
+    <t>불러오기 자체는 정상 작동하나, 메인화면 BGM(박우주 테마)가 함께 출력됨</t>
+  </si>
+  <si>
+    <t>조사 : 결투 X 격투 O</t>
+  </si>
+  <si>
+    <t>상점 입장에 행동력이 소모되지 않으나, 반복 입장시 상품은 변함</t>
+  </si>
+  <si>
+    <t>최소 데미지 1이 표기되었으나 실직적으로 데미지는 입지 않음</t>
+  </si>
+  <si>
+    <t>취소 후 재돌입 시 다른 긴급 이슈가 출력된다.</t>
+  </si>
+  <si>
+    <t>특정 행동(지역 타일 이동)시에 사라졌다가 등장하거나를 반복함</t>
+  </si>
+  <si>
+    <t>프롤로그</t>
+  </si>
+  <si>
+    <t>월드맵</t>
+  </si>
+  <si>
+    <t>긴급 이슈</t>
+  </si>
+  <si>
+    <t>상점</t>
+  </si>
+  <si>
+    <t>이슈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압구정 비밀상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 진행 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 무작위 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼포먼스 저하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 오류의 경우에는 Safety를 눌렀을때 빨간 게이지가 꽉 찬 걸로 나옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장을 하여도 저장된 것에 세이브 데이터의 간략 기록(언제 저장했는지)이 출력되지 않음(저장자체는 정상작동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드 후 한번 움직이면 그다음 이동이 되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 물품 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조력자 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조력자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결투 장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버 후 메인화면으로 갔다가 다시 게임에 들어가면 로드했을 때와 같은 문제 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격에 맞게 셋팅되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 눌림 방지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면에 다른 화면에 떠있는 상태에서 타일이 눌리는 현상 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 같은 종류는 더 높은 것만 사용 가능하도록 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘철 티켓 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘철 사용 시 행동력 소모하지 않음 턴종료시 효과 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 연출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 스타트를 누르면 시나리오씬이 발동되지 않고 곧바로 월드맵으로 이동됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 스타트 이후 월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 코드 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동과 압구정에서만 상점이 뜨는 게 아닌 어느 타일에 가도 shop버튼이 활성화 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에는 없었으나 핸드폰 실행 시 핸드폰이 먹통되는 현상 발생(LG G6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 절전모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 실행 중인데도 불구하고 절전모드가 걸림(붕괴3rd와 같은 외국 게임들 처럼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 플래시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급 이슈가 없는 지역에서도 빨간색 플래시가 발생하는 경우가 발생(캡쳐 기능이 안먹혀 캡쳐 불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵 / 압구정동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵 / 압구정동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디에든 대치동 상점이 뜨는 것과 별개로 상점 물품 리스트가 로딩 되지 않음(이미지 문제인듯)_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조력자 사용시 격투 옵션으로 고정 출력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투 씬에 돌입하였는데 격투씬 BGM과 월드맵 BGM이 동시에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉쇄 이슈 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉쇄 해체를 클리어하였는데도 불구하고 치안도표 게이지가 초기화 되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 아이템 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규격에 맞게 셋팅되지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 판매 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 시스템 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 장면(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 버프 사용 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내정보 장면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>사건 가이드, 즉 도착해야되는 지점 UI가 흰색 박스로 출력됨. 폴리싱 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오리지널 BGM 대체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대체곡으로 쓴 데저트빌딩과 스픽 왈츠가 실행되지 않음.</t>
+    <t>철자 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,39 +613,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CG 부분에서 정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sceneID17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSV 씬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시 2019/02/03 06:19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세이브 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵 옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세이브 로드가 작동이 안 됨. 세이브 부분에서 기록이 바로 안뜨고 불러오기 했을 경우 프롤로그부터 다시 시작.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이슈 CSV 잘못 불러와짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이슈 진행 오류</t>
+    <t>프리팹 수정 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 넣으면됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -241,138 +629,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불법바이오칩 이슈 진행 중 캐릭터 이름창이 전환되면서 게임이 정지됨. (제조자가 뜨고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이로봇 도난사건 이슈(issueID_626_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불법 바이오칩 이슈(issueID_622_1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전민원과의 전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성(인파,아웃파,그래플) 선택 후 전민원과 전투가 일어나지 않음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씬20 이후 1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM이 루프되지 않음</t>
-  </si>
-  <si>
-    <t>행동력이 최초 10에서 맵을 이동하자 99로 변경</t>
-  </si>
-  <si>
-    <t>폭파 사건 - 이슈 설명 후 현장 조사(범인과의 대화) 중 쉐이킹이 발생하는데, UI가 움직이며 비정상적으로 보임</t>
-  </si>
-  <si>
-    <t>강원진의 최대 체력이 5로 출력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">세이브 기능 작동하지 않음, 불러오기 시 프롤로그로 이동 </t>
-  </si>
-  <si>
-    <t>대치동에서 압구정동 이동 후 마켓 UI가 바뀌기 전에 마켓 입장을 누르면 일반 상점이 출력된다.</t>
+    <t>재확인 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재확인 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 수정 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 턴이 아닌 경우 우측 UI를 음영 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오버에서 불러오기를 할 시, 월드맵 옵션에서 Default 값을 클릭할 시 프롤로그로 돌아가던 현상이 일어나지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 (3으로 대입됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군부대 군견, 텍스트 스크립트 없이 바로 격투로 돌입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">불러오기 이후 존재하지 않던 긴급 이슈 다수 출현, 치안 도표가 상승한 지역 타일이 있는 반면 그렇지 않은 타일도 존재 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>바이오칩, 경한기업 폭탄 테러 인물과 대화가 바뀌며 게임 정지</t>
-  </si>
-  <si>
-    <t>게임 오버씬 BGM이 씬을 이탈해도 반복된다.</t>
-  </si>
-  <si>
-    <t>게임 오버에서 불러오기를 할 시, 월드맵 옵션에서 Default 값을 클릭할 시 프롤로그로 돌아가던 현상이 일어나지 않음</t>
-  </si>
-  <si>
-    <t>턴 종료를 클릭하여도 행동력이 최대치로 회복되지 않는다.</t>
-  </si>
-  <si>
-    <t>일원동이 일원으로 출력된다.</t>
-  </si>
-  <si>
-    <t>만든이 선택 후 BGM 출력되지 않음, 메인 화면으로 복귀해도 마찬가지</t>
-  </si>
-  <si>
-    <t>불러오기 자체는 정상 작동하나, 메인화면 BGM(박우주 테마)가 함께 출력됨</t>
-  </si>
-  <si>
-    <t>조사 : 결투 X 격투 O</t>
-  </si>
-  <si>
-    <t>상점 입장에 행동력이 소모되지 않으나, 반복 입장시 상품은 변함</t>
-  </si>
-  <si>
-    <t xml:space="preserve">불러오기 이후 존재하지 않던 긴급 이슈 다수 출현, 치안 도표가 상승한 지역 타일이 있는 반면 그렇지 않은 타일도 존재 </t>
-  </si>
-  <si>
-    <t>군부대 군견, 텍스트 스크립트 없이 바로 격투로 돌입</t>
-  </si>
-  <si>
-    <t>최소 데미지 1이 표기되었으나 실직적으로 데미지는 입지 않음</t>
-  </si>
-  <si>
-    <t>취소 후 재돌입 시 다른 긴급 이슈가 출력된다.</t>
-  </si>
-  <si>
-    <t>특정 행동(지역 타일 이동)시에 사라졌다가 등장하거나를 반복함</t>
-  </si>
-  <si>
-    <t>프롤로그</t>
-  </si>
-  <si>
-    <t>월드맵</t>
-  </si>
-  <si>
-    <t>긴급 이슈</t>
-  </si>
-  <si>
-    <t>상점</t>
-  </si>
-  <si>
-    <t>이슈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임오버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압구정 비밀상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재확인 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,17 +877,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -565,6 +893,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -825,7 +1156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -833,19 +1164,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O39"/>
+  <dimension ref="A4:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="8.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="98.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="111.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.75" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -855,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -907,50 +1238,56 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13"/>
+      <c r="E13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14"/>
+      <c r="F14" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -963,19 +1300,21 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15"/>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -988,19 +1327,21 @@
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16"/>
+      <c r="C16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1013,19 +1354,21 @@
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17"/>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1038,19 +1381,21 @@
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18"/>
+      <c r="C18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1063,17 +1408,19 @@
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="17">
+      <c r="B19" s="4">
         <v>8</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1086,17 +1433,19 @@
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="17">
+      <c r="B20" s="4">
         <v>9</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1109,17 +1458,19 @@
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="17">
+      <c r="B21" s="4">
         <v>10</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1131,217 +1482,608 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17">
+      <c r="B22" s="4">
         <v>11</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>13</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>14</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>15</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17">
-        <v>12</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17" t="s">
+      <c r="E26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>16</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>17</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="17">
-        <v>13</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="17" t="s">
+      <c r="E28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>18</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>21</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>22</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="17">
-        <v>14</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="21" t="s">
+      <c r="F33" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>24</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>25</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="17">
-        <v>15</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="21" t="s">
+      <c r="F36" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>27</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>28</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="17">
-        <v>16</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="D39" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>29</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="17">
-        <v>17</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="21" t="s">
+      <c r="D40" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>30</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>31</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>32</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>33</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="17">
-        <v>18</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="21" t="s">
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>34</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="17">
-        <v>19</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="17">
-        <v>20</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="17">
-        <v>21</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="17">
-        <v>22</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="17">
-        <v>23</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="16" t="s">
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
+        <v>35</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="17">
-        <v>24</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="17">
-        <v>25</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="17">
-        <v>26</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="17">
-        <v>27</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="16" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>36</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>37</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>38</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="4">
+        <v>39</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>40</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4">
+        <v>41</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4">
+        <v>42</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>43</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4">
+        <v>44</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4">
+        <v>45</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="4">
+        <v>46</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="4">
+        <v>47</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4">
+        <v>48</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1355,7 +2097,7 @@
   <dimension ref="A3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
